--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\projects\ContentManagementSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F81A984-2608-4169-ABAC-02898F49A2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322E1A90-41C8-45E2-85EE-B37D5808746E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-17865" yWindow="2250" windowWidth="11520" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>hui1</t>
+  </si>
+  <si>
+    <t>hui2</t>
   </si>
 </sst>
 </file>
@@ -345,17 +348,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E4"/>
+  <dimension ref="E4:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\projects\ContentManagementSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322E1A90-41C8-45E2-85EE-B37D5808746E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DC66A0-93A2-42B5-B577-AF59AF248DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-17865" yWindow="2250" windowWidth="11520" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>hui1</t>
   </si>
   <si>
     <t>hui2</t>
+  </si>
+  <si>
+    <t>huy7</t>
   </si>
 </sst>
 </file>
@@ -348,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E4:F4"/>
+  <dimension ref="E4:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -364,6 +367,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="15" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\projects\ContentManagementSystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ОУИД-1\Desktop\Projects\ContentManagementSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322E1A90-41C8-45E2-85EE-B37D5808746E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC3605A-EC8D-460C-8B9E-5D7FD15B6EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17865" yWindow="2250" windowWidth="11520" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16080" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>hui1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>hui2</t>
   </si>
@@ -348,20 +345,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E4:F4"/>
+  <dimension ref="E4:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
+    <row r="4" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>123222</v>
+      </c>
+      <c r="F4" t="s">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
-        <v>1</v>
+      <c r="G4">
+        <v>1233</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\projects\ContentManagementSystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ОУИД-1\Desktop\Projects\ContentManagementSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DC66A0-93A2-42B5-B577-AF59AF248DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2243C14B-5650-4B84-B8A9-776131EE6AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17865" yWindow="2250" windowWidth="11520" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16080" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>hui1</t>
-  </si>
-  <si>
-    <t>hui2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>huy7</t>
   </si>
@@ -351,25 +345,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E4:F15"/>
+  <dimension ref="C2:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>123</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>123</v>
+      </c>
+      <c r="E4">
+        <v>231</v>
+      </c>
+      <c r="F4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>123</v>
+      </c>
+      <c r="G5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>123</v>
+      </c>
+      <c r="D6">
+        <v>123</v>
+      </c>
+      <c r="F6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>321</v>
+      </c>
+      <c r="H7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>123</v>
+      </c>
+      <c r="D9">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
         <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F15" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
